--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I404"/>
+  <dimension ref="A1:I405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15066,6 +15066,43 @@
         </is>
       </c>
     </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F405" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G405" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H405" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I405"/>
+  <dimension ref="A1:I406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15103,6 +15103,41 @@
         </is>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F406" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G406" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H406" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I406" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I406"/>
+  <dimension ref="A1:I407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15138,6 +15138,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F407" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G407" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H407" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I407"/>
+  <dimension ref="A1:I408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15175,6 +15175,43 @@
         </is>
       </c>
     </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F408" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G408" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H408" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I408"/>
+  <dimension ref="A1:I409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15212,6 +15212,43 @@
         </is>
       </c>
     </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F409" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G409" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H409" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I409"/>
+  <dimension ref="A1:I410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15249,6 +15249,43 @@
         </is>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F410" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G410" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H410" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I410"/>
+  <dimension ref="A1:I411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15286,6 +15286,43 @@
         </is>
       </c>
     </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F411" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G411" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H411" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I411"/>
+  <dimension ref="A1:I412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15323,6 +15323,43 @@
         </is>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F412" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G412" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H412" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I412"/>
+  <dimension ref="A1:I413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15360,6 +15360,43 @@
         </is>
       </c>
     </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F413" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G413" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H413" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I413"/>
+  <dimension ref="A1:I414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15397,6 +15397,41 @@
         </is>
       </c>
     </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F414" t="n">
+        <v>1</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H414" t="n">
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I414"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15432,6 +15432,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I415" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I415"/>
+  <dimension ref="A1:I417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15467,6 +15467,80 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F417" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I417"/>
+  <dimension ref="A1:I419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15541,6 +15541,78 @@
         </is>
       </c>
     </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F418" t="n">
+        <v>1</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H418" t="n">
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>1</v>
+      </c>
+      <c r="F419" t="n">
+        <v>1</v>
+      </c>
+      <c r="G419" t="n">
+        <v>1</v>
+      </c>
+      <c r="H419" t="n">
+        <v>1</v>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I419"/>
+  <dimension ref="A1:I420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15613,6 +15613,43 @@
         </is>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>1</v>
+      </c>
+      <c r="F420" t="n">
+        <v>1</v>
+      </c>
+      <c r="G420" t="n">
+        <v>1</v>
+      </c>
+      <c r="H420" t="n">
+        <v>1</v>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I420"/>
+  <dimension ref="A1:I421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15650,6 +15650,43 @@
         </is>
       </c>
     </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>1</v>
+      </c>
+      <c r="F421" t="n">
+        <v>1</v>
+      </c>
+      <c r="G421" t="n">
+        <v>1</v>
+      </c>
+      <c r="H421" t="n">
+        <v>1</v>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I421"/>
+  <dimension ref="A1:I422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15687,6 +15687,43 @@
         </is>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>1</v>
+      </c>
+      <c r="F422" t="n">
+        <v>1</v>
+      </c>
+      <c r="G422" t="n">
+        <v>1</v>
+      </c>
+      <c r="H422" t="n">
+        <v>1</v>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I422"/>
+  <dimension ref="A1:I423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15724,6 +15724,43 @@
         </is>
       </c>
     </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>1</v>
+      </c>
+      <c r="F423" t="n">
+        <v>1</v>
+      </c>
+      <c r="G423" t="n">
+        <v>1</v>
+      </c>
+      <c r="H423" t="n">
+        <v>1</v>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I423"/>
+  <dimension ref="A1:I425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15761,6 +15761,78 @@
         </is>
       </c>
     </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F424" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G424" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H424" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I424" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F425" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G425" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H425" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I425"/>
+  <dimension ref="A1:I426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15833,6 +15833,43 @@
         </is>
       </c>
     </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F426" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G426" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H426" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I426"/>
+  <dimension ref="A1:I427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15870,6 +15870,43 @@
         </is>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F427" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G427" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H427" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I427"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14118,11 +14118,11 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1575244800</v>
+        <v>1574899200</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -14147,19 +14147,17 @@
       <c r="H379" t="n">
         <v>1.02</v>
       </c>
-      <c r="I379" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I379" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>1575331200</v>
+        <v>1575244800</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -14173,28 +14171,30 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="F380" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="G380" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>14000</v>
+        <v>1.02</v>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1576800000</v>
+        <v>1575331200</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -14208,30 +14208,28 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F381" t="n">
         <v>1</v>
       </c>
       <c r="G381" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="H381" t="n">
         <v>1</v>
       </c>
-      <c r="I381" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I381" t="n">
+        <v>14000</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1577059200</v>
+        <v>1576800000</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -14264,11 +14262,11 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1577145600</v>
+        <v>1577059200</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -14301,11 +14299,11 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1577318400</v>
+        <v>1577145600</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -14338,11 +14336,11 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1577664000</v>
+        <v>1577318400</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -14367,17 +14365,19 @@
       <c r="H385" t="n">
         <v>1</v>
       </c>
-      <c r="I385" t="n">
-        <v>1500</v>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>1577750400</v>
+        <v>1577664000</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -14391,28 +14391,28 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F386" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G386" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H386" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I386" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1577923200</v>
+        <v>1577750400</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -14426,28 +14426,28 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F387" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G387" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I387" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>1578009600</v>
+        <v>1577923200</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -14472,19 +14472,17 @@
       <c r="H388" t="n">
         <v>1</v>
       </c>
-      <c r="I388" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I388" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1578268800</v>
+        <v>1578009600</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -14517,11 +14515,11 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>1578355200</v>
+        <v>1578268800</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -14554,11 +14552,11 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1578441600</v>
+        <v>1578355200</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -14591,11 +14589,11 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>1578528000</v>
+        <v>1578441600</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -14628,11 +14626,11 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>1578614400</v>
+        <v>1578528000</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -14665,11 +14663,11 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>1579046400</v>
+        <v>1578614400</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -14694,17 +14692,19 @@
       <c r="H394" t="n">
         <v>1</v>
       </c>
-      <c r="I394" t="n">
-        <v>2000</v>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1579564800</v>
+        <v>1579046400</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -14729,19 +14729,17 @@
       <c r="H395" t="n">
         <v>1</v>
       </c>
-      <c r="I395" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I395" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>1579651200</v>
+        <v>1579564800</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -14774,11 +14772,11 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>1579737600</v>
+        <v>1579651200</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -14811,11 +14809,11 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>1579824000</v>
+        <v>1579737600</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -14829,28 +14827,30 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F398" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="G398" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H398" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="I398" t="n">
-        <v>5000</v>
+        <v>1</v>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>1580169600</v>
+        <v>1579824000</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -14864,30 +14864,28 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="F399" t="n">
         <v>1.02</v>
       </c>
       <c r="G399" t="n">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="H399" t="n">
         <v>1.02</v>
       </c>
-      <c r="I399" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I399" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>1580256000</v>
+        <v>1580169600</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -14920,11 +14918,11 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1580342400</v>
+        <v>1580256000</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14957,11 +14955,11 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1580428800</v>
+        <v>1580342400</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14994,11 +14992,11 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>1580688000</v>
+        <v>1580428800</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -15031,11 +15029,11 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>1581292800</v>
+        <v>1580688000</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -15068,11 +15066,11 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>1581379200</v>
+        <v>1581292800</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -15105,11 +15103,11 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1581465600</v>
+        <v>1581379200</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -15123,28 +15121,30 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F406" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G406" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="H406" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I406" t="n">
-        <v>2000</v>
+        <v>1.02</v>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>1581552000</v>
+        <v>1581465600</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -15169,19 +15169,17 @@
       <c r="H407" t="n">
         <v>1.01</v>
       </c>
-      <c r="I407" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I407" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>1581638400</v>
+        <v>1581552000</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -15214,11 +15212,11 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>1581897600</v>
+        <v>1581638400</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -15251,11 +15249,11 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>1581984000</v>
+        <v>1581897600</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -15288,11 +15286,11 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>1582070400</v>
+        <v>1581984000</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -15325,11 +15323,11 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>1582156800</v>
+        <v>1582070400</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -15362,11 +15360,11 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>1582502400</v>
+        <v>1582156800</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -15399,11 +15397,11 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>1582588800</v>
+        <v>1582502400</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -15417,28 +15415,30 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>0.9</v>
+        <v>1.01</v>
       </c>
       <c r="F414" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="G414" t="n">
-        <v>0.9</v>
+        <v>1.01</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>8000</v>
+        <v>1.01</v>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>1582675200</v>
+        <v>1582588800</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -15452,28 +15452,28 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F415" t="n">
+        <v>1</v>
+      </c>
+      <c r="G415" t="n">
         <v>0.9</v>
       </c>
-      <c r="G415" t="n">
-        <v>0.88</v>
-      </c>
       <c r="H415" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>1582761600</v>
+        <v>1582675200</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -15490,7 +15490,7 @@
         <v>0.88</v>
       </c>
       <c r="F416" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="G416" t="n">
         <v>0.88</v>
@@ -15498,19 +15498,17 @@
       <c r="H416" t="n">
         <v>0.88</v>
       </c>
-      <c r="I416" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I416" t="n">
+        <v>7000</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1582848000</v>
+        <v>1582761600</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -15543,11 +15541,11 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1583107200</v>
+        <v>1582848000</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -15561,28 +15559,30 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F418" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G418" t="n">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>4000</v>
+        <v>0.88</v>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1583193600</v>
+        <v>1583107200</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -15596,30 +15596,28 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="F419" t="n">
         <v>1</v>
       </c>
       <c r="G419" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="H419" t="n">
         <v>1</v>
       </c>
-      <c r="I419" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I419" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>1583280000</v>
+        <v>1583193600</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-03-03</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -15652,11 +15650,11 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1583366400</v>
+        <v>1583280000</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -15689,11 +15687,11 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>1583452800</v>
+        <v>1583366400</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -15726,11 +15724,11 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>1583712000</v>
+        <v>1583452800</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-03-06</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -15763,11 +15761,11 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>1583798400</v>
+        <v>1583712000</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-03-09</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -15781,28 +15779,30 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="F424" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="G424" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="H424" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="I424" t="n">
-        <v>4000</v>
+        <v>1</v>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>1583884800</v>
+        <v>1583798400</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-03-10</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -15816,30 +15816,28 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="F425" t="n">
         <v>1.05</v>
       </c>
       <c r="G425" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="H425" t="n">
         <v>1.05</v>
       </c>
-      <c r="I425" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I425" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>1583971200</v>
+        <v>1583884800</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -15872,11 +15870,11 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1584057600</v>
+        <v>1583971200</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2020-03-12</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -15902,6 +15900,43 @@
         <v>1.05</v>
       </c>
       <c r="I427" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F428" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G428" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H428" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I428" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15942,6 +15942,41 @@
         </is>
       </c>
     </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>1</v>
+      </c>
+      <c r="F429" t="n">
+        <v>1</v>
+      </c>
+      <c r="G429" t="n">
+        <v>1</v>
+      </c>
+      <c r="H429" t="n">
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I429"/>
+  <dimension ref="A1:I430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15977,6 +15977,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>1</v>
+      </c>
+      <c r="F430" t="n">
+        <v>1</v>
+      </c>
+      <c r="G430" t="n">
+        <v>1</v>
+      </c>
+      <c r="H430" t="n">
+        <v>1</v>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I430"/>
+  <dimension ref="A1:I431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16014,6 +16014,41 @@
         </is>
       </c>
     </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F431" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G431" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H431" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I431" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I431"/>
+  <dimension ref="A1:I432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16049,6 +16049,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F432" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G432" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H432" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I432"/>
+  <dimension ref="A1:I433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16086,6 +16086,43 @@
         </is>
       </c>
     </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F433" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G433" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H433" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I433"/>
+  <dimension ref="A1:I434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16123,6 +16123,43 @@
         </is>
       </c>
     </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F434" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G434" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H434" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I434"/>
+  <dimension ref="A1:I435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16160,6 +16160,43 @@
         </is>
       </c>
     </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F435" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G435" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H435" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I435"/>
+  <dimension ref="A1:I436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16197,6 +16197,43 @@
         </is>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F436" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G436" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H436" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I436"/>
+  <dimension ref="A1:I437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16234,6 +16234,43 @@
         </is>
       </c>
     </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F437" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G437" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H437" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I437"/>
+  <dimension ref="A1:I439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16271,6 +16271,80 @@
         </is>
       </c>
     </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F438" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G438" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H438" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F439" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G439" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H439" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I439"/>
+  <dimension ref="A1:I440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16345,6 +16345,43 @@
         </is>
       </c>
     </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F440" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G440" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H440" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I440"/>
+  <dimension ref="A1:I441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16382,6 +16382,41 @@
         </is>
       </c>
     </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I441" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03005.xlsx
+++ b/data/03005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I441"/>
+  <dimension ref="A1:I444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16417,6 +16417,115 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I442" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>03005</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>MHCARE</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
